--- a/Excel/镇魂街/7DayPromote.xlsx
+++ b/Excel/镇魂街/7DayPromote.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="318">
   <si>
     <t>sheet名</t>
   </si>
@@ -1346,6 +1346,34 @@
   </si>
   <si>
     <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖不停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -16160,10 +16188,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="K8" sqref="K8:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16177,15 +16205,16 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="9.25" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>226</v>
       </c>
@@ -16217,25 +16246,28 @@
         <v>220</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -16267,25 +16299,28 @@
         <v>225</v>
       </c>
       <c r="K2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" t="s">
         <v>276</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>310</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>265</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>224</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>227</v>
       </c>
@@ -16317,25 +16352,28 @@
         <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>B4*100000+D4*1000+G4*100+I4</f>
         <v>101401</v>
@@ -16368,25 +16406,28 @@
         <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>200</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>100</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A19" si="0">B5*100000+D5*1000+G5*100+I5</f>
         <v>101402</v>
@@ -16419,25 +16460,28 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L5" s="2">
-        <v>196</v>
-      </c>
       <c r="M5" s="2">
-        <v>98</v>
+        <v>2880</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>102401</v>
@@ -16470,25 +16514,28 @@
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>200</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>100</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>102402</v>
@@ -16521,25 +16568,28 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>300</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>150</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>103401</v>
@@ -16572,25 +16622,28 @@
         <v>2</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>196</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>98</v>
       </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>104401</v>
@@ -16623,25 +16676,28 @@
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>196</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>98</v>
       </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>105401</v>
@@ -16674,25 +16730,28 @@
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>196</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>98</v>
       </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>106401</v>
@@ -16725,25 +16784,28 @@
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>196</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>98</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>107401</v>
@@ -16776,25 +16838,28 @@
         <v>2</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>196</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>98</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>208401</v>
@@ -16827,25 +16892,28 @@
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>196</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>98</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>209401</v>
@@ -16878,25 +16946,28 @@
         <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>196</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>98</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>210401</v>
@@ -16929,25 +17000,28 @@
         <v>2</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>196</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>98</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>211401</v>
@@ -16980,25 +17054,28 @@
         <v>2</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>196</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>98</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>212401</v>
@@ -17031,25 +17108,28 @@
         <v>2</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>196</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>98</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>213401</v>
@@ -17082,25 +17162,28 @@
         <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>196</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>98</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>214401</v>
@@ -17133,21 +17216,24 @@
         <v>2</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>196</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>98</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>1</v>
       </c>
     </row>
